--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -471,4 +472,90 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -9,6 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-01" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -558,4 +562,198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -13,6 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-04" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-07" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-09" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-10" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -756,4 +758,186 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JKHY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FOXA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHIP </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCFT </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -15,6 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-08" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-09" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -444,6 +448,290 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHIP </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FOXA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCFT </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGLD </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -19,6 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-14" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-15" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-17" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-18" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -732,13 +734,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +761,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VRTX </t>
+          <t xml:space="preserve"> STRL </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
         </is>
       </c>
     </row>
@@ -768,13 +800,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,7 +837,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ADMA </t>
+          <t xml:space="preserve"> RGLD </t>
         </is>
       </c>
     </row>
@@ -815,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SF </t>
+          <t xml:space="preserve"> KRC </t>
         </is>
       </c>
     </row>
@@ -825,6 +857,108 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> VIPS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> VRTX </t>
         </is>
       </c>

--- a/Data/Screeners/FD2022-02.xlsx
+++ b/Data/Screeners/FD2022-02.xlsx
@@ -21,6 +21,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-16" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-17" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-18" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-21" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-23" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-24" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-25" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-02-28" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -866,49 +871,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VRTX </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,7 +908,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ADMA </t>
+          <t xml:space="preserve"> RGLD </t>
         </is>
       </c>
     </row>
@@ -949,7 +918,217 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SF </t>
+          <t xml:space="preserve"> KRC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGLD </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGLD </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CARG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UHS </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NMM </t>
         </is>
       </c>
     </row>
@@ -959,7 +1138,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VRTX </t>
+          <t xml:space="preserve"> TAP </t>
         </is>
       </c>
     </row>
@@ -969,7 +1148,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MFC </t>
+          <t xml:space="preserve"> PCRX </t>
         </is>
       </c>
     </row>
@@ -979,16 +1158,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> V </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t xml:space="preserve"> EXEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATO </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1025,7 +1224,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GOOGL </t>
+          <t xml:space="preserve"> ADMA </t>
         </is>
       </c>
     </row>
@@ -1035,7 +1234,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VRTX </t>
+          <t xml:space="preserve"> SF </t>
         </is>
       </c>
     </row>
@@ -1045,7 +1244,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OAS </t>
+          <t xml:space="preserve"> VRTX </t>
         </is>
       </c>
     </row>
@@ -1055,7 +1254,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SF </t>
+          <t xml:space="preserve"> MFC </t>
         </is>
       </c>
     </row>
@@ -1065,151 +1264,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MFC </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BDX </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CDEV </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ADMA </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CHGG </t>
+          <t xml:space="preserve"> V </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRBK </t>
         </is>
       </c>
     </row>
@@ -1219,7 +1310,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SF </t>
+          <t xml:space="preserve"> GOOGL </t>
         </is>
       </c>
     </row>
@@ -1229,7 +1320,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STRL </t>
+          <t xml:space="preserve"> VRTX </t>
         </is>
       </c>
     </row>
@@ -1239,7 +1330,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MFC </t>
+          <t xml:space="preserve"> OAS </t>
         </is>
       </c>
     </row>
@@ -1249,43 +1340,161 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CVS </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Tickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> JKHY </t>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADMA </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHGG </t>
         </is>
       </c>
     </row>
@@ -1295,7 +1504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FOXA </t>
+          <t xml:space="preserve"> SF </t>
         </is>
       </c>
     </row>
@@ -1305,7 +1514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHIP </t>
+          <t xml:space="preserve"> STRL </t>
         </is>
       </c>
     </row>
@@ -1315,7 +1524,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SF </t>
+          <t xml:space="preserve"> MFC </t>
         </is>
       </c>
     </row>
@@ -1325,6 +1534,82 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JKHY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FOXA </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHIP </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SF </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t xml:space="preserve"> CHGG </t>
         </is>
       </c>
